--- a/COVID.xlsx
+++ b/COVID.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pgummadidala\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/09f5e8b170758754/python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BF173D-0E33-47E4-B8FD-0680E0FCC2BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{35BF173D-0E33-47E4-B8FD-0680E0FCC2BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C93D3DE1-D9AF-4CC2-B3A5-116AE0C56969}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{20D65830-EACF-454B-AE20-44A96E492BF0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{20D65830-EACF-454B-AE20-44A96E492BF0}"/>
   </bookViews>
   <sheets>
-    <sheet name="SVTeam" sheetId="1" r:id="rId1"/>
-    <sheet name="Examples" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SVTeam!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="36">
   <si>
     <t>Employee #</t>
   </si>
@@ -106,19 +105,7 @@
     </r>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>Verification Engineer</t>
-  </si>
-  <si>
-    <t>Software Engineer</t>
-  </si>
-  <si>
-    <t>Repair Technologist</t>
   </si>
   <si>
     <t>Status</t>
@@ -136,76 +123,7 @@
     <t>Active</t>
   </si>
   <si>
-    <t>Leave</t>
-  </si>
-  <si>
-    <t>Employee A</t>
-  </si>
-  <si>
-    <t>Assembler</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Not able to work 100% (COVID-19 related)</t>
-  </si>
-  <si>
-    <t>Employee B</t>
-  </si>
-  <si>
     <t>Working from home</t>
-  </si>
-  <si>
-    <t>no testing required this week;</t>
-  </si>
-  <si>
-    <t>Employee C</t>
-  </si>
-  <si>
-    <t>Home Office</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no childcare this week; </t>
-  </si>
-  <si>
-    <t>only able to work about 50% of time</t>
-  </si>
-  <si>
-    <t>Employee D</t>
-  </si>
-  <si>
-    <t>Working in office</t>
-  </si>
-  <si>
-    <t>Employee E</t>
-  </si>
-  <si>
-    <t>Accounts Payable</t>
-  </si>
-  <si>
-    <t>Part-time home/Part-time office</t>
-  </si>
-  <si>
-    <t>Employee F</t>
-  </si>
-  <si>
-    <t>Production Team Lead</t>
-  </si>
-  <si>
-    <t>updating procedures</t>
-  </si>
-  <si>
-    <t>Employee G</t>
-  </si>
-  <si>
-    <t>Engineering Technician</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>on leave</t>
   </si>
   <si>
     <t>Srujan veera Reddy Kallem</t>
@@ -269,9 +187,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,###.00;\(#,###.00\);0.00"/>
-    <numFmt numFmtId="165" formatCode="0000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -357,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -382,13 +299,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -715,7 +625,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -735,7 +645,7 @@
     <col min="14" max="14" width="43.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -749,13 +659,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
@@ -770,449 +680,449 @@
         <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>2079</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
-        <v>2079</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
+      <c r="A3" s="11">
         <v>1640</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+      <c r="A4" s="10">
         <v>2068</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
+      <c r="A5" s="10">
         <v>2599</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D5" s="6">
         <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N5" s="7"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+      <c r="A6" s="10">
         <v>1694</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N6" s="7"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
+      <c r="A7" s="10">
         <v>3097</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N7" s="7"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+      <c r="A8" s="10">
         <v>2860</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
+      <c r="A9" s="10">
         <v>2993</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N9" s="7"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
+      <c r="A10" s="10">
         <v>3364</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
+      <c r="A11" s="10">
         <v>2854</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
+      <c r="A12" s="10">
         <v>2618</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D12" s="6">
         <v>1</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
+      <c r="A13" s="10">
         <v>2877</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D13" s="6">
         <v>1</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
@@ -1228,7 +1138,7 @@
       <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
@@ -4028,7 +3938,6 @@
       <c r="N189" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1" xr:uid="{18558EC4-B001-4B68-8EDB-38F1D3D3FC95}"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M189" xr:uid="{1266A354-0A17-449B-A6DF-CC5919330445}">
       <formula1>"Yes, No"</formula1>
@@ -4039,395 +3948,4 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB58CFF0-8B08-480A-BCC3-A668FEB086A9}">
-  <dimension ref="A1:N12"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12" style="12" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="38.33203125" customWidth="1"/>
-    <col min="12" max="12" width="27.33203125" customWidth="1"/>
-    <col min="13" max="13" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="36.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="11">
-        <v>1</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="7"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="7"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="11">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="11">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N5" s="7"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="11">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="7"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="11">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="7"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="11">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K12" xr:uid="{6C15F09F-359A-4CD6-AE77-F10EE0483878}">
-      <formula1>"Working from home, Part-time home/Part-time office, Working in office, Not able to work 100% (COVID-19 related)"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M12 J2:J12" xr:uid="{9BBC489E-A32F-434A-9D1F-B688D8886E22}">
-      <formula1>"Yes, No"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>